--- a/target/test-classes/value.xlsx
+++ b/target/test-classes/value.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surya\eclipse-workspace\demowebsite\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E39B3410-604C-4899-8BB4-E72D57CC28A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7FC30F-A5C7-4ACA-A99D-9820975AC3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{40EFA502-FB39-4ECA-87D5-17B7000FFB70}"/>
   </bookViews>
@@ -444,13 +444,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7597EF-67CE-42EB-A288-7D5A25347AC8}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="13.21875" customWidth="1"/>
     <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
     <col min="5" max="5" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
